--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.62696966666667</v>
+        <v>49.88947433333334</v>
       </c>
       <c r="H2">
-        <v>166.880909</v>
+        <v>149.668423</v>
       </c>
       <c r="I2">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195875</v>
       </c>
       <c r="J2">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195874</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.152043</v>
+        <v>0.5034623333333333</v>
       </c>
       <c r="N2">
-        <v>0.456129</v>
+        <v>1.510387</v>
       </c>
       <c r="O2">
-        <v>0.4429692689578017</v>
+        <v>0.3640009504979511</v>
       </c>
       <c r="P2">
-        <v>0.4429692689578016</v>
+        <v>0.364000950497951</v>
       </c>
       <c r="Q2">
-        <v>8.457691349029</v>
+        <v>25.11747115663345</v>
       </c>
       <c r="R2">
-        <v>76.11922214126101</v>
+        <v>226.0572404097011</v>
       </c>
       <c r="S2">
-        <v>0.1182869717293189</v>
+        <v>0.08462587380735187</v>
       </c>
       <c r="T2">
-        <v>0.1182869717293189</v>
+        <v>0.08462587380735184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.62696966666667</v>
+        <v>49.88947433333334</v>
       </c>
       <c r="H3">
-        <v>166.880909</v>
+        <v>149.668423</v>
       </c>
       <c r="I3">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195875</v>
       </c>
       <c r="J3">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195874</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.179338</v>
       </c>
       <c r="O3">
-        <v>0.1741639377376887</v>
+        <v>0.04322018294675573</v>
       </c>
       <c r="P3">
-        <v>0.1741639377376887</v>
+        <v>0.04322018294675572</v>
       </c>
       <c r="Q3">
-        <v>3.325343162026889</v>
+        <v>2.982359515997111</v>
       </c>
       <c r="R3">
-        <v>29.928088458242</v>
+        <v>26.841235643974</v>
       </c>
       <c r="S3">
-        <v>0.04650734536938583</v>
+        <v>0.01004817636596638</v>
       </c>
       <c r="T3">
-        <v>0.04650734536938583</v>
+        <v>0.01004817636596638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.62696966666667</v>
+        <v>49.88947433333334</v>
       </c>
       <c r="H4">
-        <v>166.880909</v>
+        <v>149.668423</v>
       </c>
       <c r="I4">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195875</v>
       </c>
       <c r="J4">
-        <v>0.2670320042914471</v>
+        <v>0.2324880572195874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1314136666666667</v>
+        <v>0.819893</v>
       </c>
       <c r="N4">
-        <v>0.3942410000000001</v>
+        <v>2.459679</v>
       </c>
       <c r="O4">
-        <v>0.3828667933045097</v>
+        <v>0.5927788665552932</v>
       </c>
       <c r="P4">
-        <v>0.3828667933045097</v>
+        <v>0.5927788665552931</v>
       </c>
       <c r="Q4">
-        <v>7.310144049452112</v>
+        <v>40.90403077957967</v>
       </c>
       <c r="R4">
-        <v>65.79129644506901</v>
+        <v>368.136277016217</v>
       </c>
       <c r="S4">
-        <v>0.1022376871927424</v>
+        <v>0.1378140070462692</v>
       </c>
       <c r="T4">
-        <v>0.1022376871927424</v>
+        <v>0.1378140070462692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>190.071975</v>
       </c>
       <c r="I5">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="J5">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.152043</v>
+        <v>0.5034623333333333</v>
       </c>
       <c r="N5">
-        <v>0.456129</v>
+        <v>1.510387</v>
       </c>
       <c r="O5">
-        <v>0.4429692689578017</v>
+        <v>0.3640009504979511</v>
       </c>
       <c r="P5">
-        <v>0.4429692689578016</v>
+        <v>0.364000950497951</v>
       </c>
       <c r="Q5">
-        <v>9.633037764975001</v>
+        <v>31.89802667825834</v>
       </c>
       <c r="R5">
-        <v>86.697339884775</v>
+        <v>287.082240104325</v>
       </c>
       <c r="S5">
-        <v>0.1347250471494065</v>
+        <v>0.1074709457629826</v>
       </c>
       <c r="T5">
-        <v>0.1347250471494064</v>
+        <v>0.1074709457629826</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>190.071975</v>
       </c>
       <c r="I6">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="J6">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>0.179338</v>
       </c>
       <c r="O6">
-        <v>0.1741639377376887</v>
+        <v>0.04322018294675573</v>
       </c>
       <c r="P6">
-        <v>0.1741639377376887</v>
+        <v>0.04322018294675572</v>
       </c>
       <c r="Q6">
         <v>3.787458650283333</v>
@@ -821,10 +821,10 @@
         <v>34.08712785255</v>
       </c>
       <c r="S6">
-        <v>0.05297036694812269</v>
+        <v>0.01276071925356996</v>
       </c>
       <c r="T6">
-        <v>0.05297036694812268</v>
+        <v>0.01276071925356996</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>190.071975</v>
       </c>
       <c r="I7">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="J7">
-        <v>0.3041408435993349</v>
+        <v>0.295249080025651</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1314136666666667</v>
+        <v>0.819893</v>
       </c>
       <c r="N7">
-        <v>0.3942410000000001</v>
+        <v>2.459679</v>
       </c>
       <c r="O7">
-        <v>0.3828667933045097</v>
+        <v>0.5927788665552932</v>
       </c>
       <c r="P7">
-        <v>0.3828667933045097</v>
+        <v>0.5927788665552931</v>
       </c>
       <c r="Q7">
-        <v>8.326018388441668</v>
+        <v>51.946227266225</v>
       </c>
       <c r="R7">
-        <v>74.93416549597501</v>
+        <v>467.516045396025</v>
       </c>
       <c r="S7">
-        <v>0.1164454295018058</v>
+        <v>0.1750174150090985</v>
       </c>
       <c r="T7">
-        <v>0.1164454295018057</v>
+        <v>0.1750174150090985</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.67228600000001</v>
+        <v>52.37451933333333</v>
       </c>
       <c r="H8">
-        <v>110.016858</v>
+        <v>157.123558</v>
       </c>
       <c r="I8">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="J8">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.152043</v>
+        <v>0.5034623333333333</v>
       </c>
       <c r="N8">
-        <v>0.456129</v>
+        <v>1.510387</v>
       </c>
       <c r="O8">
-        <v>0.4429692689578017</v>
+        <v>0.3640009504979511</v>
       </c>
       <c r="P8">
-        <v>0.4429692689578016</v>
+        <v>0.364000950497951</v>
       </c>
       <c r="Q8">
-        <v>5.575764380298001</v>
+        <v>26.36859771077178</v>
       </c>
       <c r="R8">
-        <v>50.18187942268201</v>
+        <v>237.317379396946</v>
       </c>
       <c r="S8">
-        <v>0.0779811246833183</v>
+        <v>0.08884117387586912</v>
       </c>
       <c r="T8">
-        <v>0.07798112468331828</v>
+        <v>0.08884117387586911</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>36.67228600000001</v>
+        <v>52.37451933333333</v>
       </c>
       <c r="H9">
-        <v>110.016858</v>
+        <v>157.123558</v>
       </c>
       <c r="I9">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="J9">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>0.179338</v>
       </c>
       <c r="O9">
-        <v>0.1741639377376887</v>
+        <v>0.04322018294675573</v>
       </c>
       <c r="P9">
-        <v>0.1741639377376887</v>
+        <v>0.04322018294675572</v>
       </c>
       <c r="Q9">
-        <v>2.192244808889334</v>
+        <v>3.130913849400444</v>
       </c>
       <c r="R9">
-        <v>19.730203280004</v>
+        <v>28.178224644604</v>
       </c>
       <c r="S9">
-        <v>0.03066013986932849</v>
+        <v>0.01054868615828302</v>
       </c>
       <c r="T9">
-        <v>0.03066013986932849</v>
+        <v>0.01054868615828302</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.67228600000001</v>
+        <v>52.37451933333333</v>
       </c>
       <c r="H10">
-        <v>110.016858</v>
+        <v>157.123558</v>
       </c>
       <c r="I10">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="J10">
-        <v>0.1760418388995444</v>
+        <v>0.2440685216737345</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1314136666666667</v>
+        <v>0.819893</v>
       </c>
       <c r="N10">
-        <v>0.3942410000000001</v>
+        <v>2.459679</v>
       </c>
       <c r="O10">
-        <v>0.3828667933045097</v>
+        <v>0.5927788665552932</v>
       </c>
       <c r="P10">
-        <v>0.3828667933045097</v>
+        <v>0.5927788665552931</v>
       </c>
       <c r="Q10">
-        <v>4.819239568308668</v>
+        <v>42.94150177976466</v>
       </c>
       <c r="R10">
-        <v>43.37315611477801</v>
+        <v>386.473516017882</v>
       </c>
       <c r="S10">
-        <v>0.06740057434689767</v>
+        <v>0.1446786616395823</v>
       </c>
       <c r="T10">
-        <v>0.06740057434689767</v>
+        <v>0.1446786616395823</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>52.65915966666667</v>
+        <v>48.96808833333333</v>
       </c>
       <c r="H11">
-        <v>157.977479</v>
+        <v>146.904265</v>
       </c>
       <c r="I11">
-        <v>0.2527853132096734</v>
+        <v>0.2281943410810271</v>
       </c>
       <c r="J11">
-        <v>0.2527853132096734</v>
+        <v>0.228194341081027</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.152043</v>
+        <v>0.5034623333333333</v>
       </c>
       <c r="N11">
-        <v>0.456129</v>
+        <v>1.510387</v>
       </c>
       <c r="O11">
-        <v>0.4429692689578017</v>
+        <v>0.3640009504979511</v>
       </c>
       <c r="P11">
-        <v>0.4429692689578016</v>
+        <v>0.364000950497951</v>
       </c>
       <c r="Q11">
-        <v>8.006456613199001</v>
+        <v>24.65358801117278</v>
       </c>
       <c r="R11">
-        <v>72.05810951879101</v>
+        <v>221.882292100555</v>
       </c>
       <c r="S11">
-        <v>0.111976125395758</v>
+        <v>0.08306295705174749</v>
       </c>
       <c r="T11">
-        <v>0.1119761253957579</v>
+        <v>0.08306295705174747</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>52.65915966666667</v>
+        <v>48.96808833333333</v>
       </c>
       <c r="H12">
-        <v>157.977479</v>
+        <v>146.904265</v>
       </c>
       <c r="I12">
-        <v>0.2527853132096734</v>
+        <v>0.2281943410810271</v>
       </c>
       <c r="J12">
-        <v>0.2527853132096734</v>
+        <v>0.228194341081027</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>0.179338</v>
       </c>
       <c r="O12">
-        <v>0.1741639377376887</v>
+        <v>0.04322018294675573</v>
       </c>
       <c r="P12">
-        <v>0.1741639377376887</v>
+        <v>0.04322018294675572</v>
       </c>
       <c r="Q12">
-        <v>3.147929458766889</v>
+        <v>2.927279675174444</v>
       </c>
       <c r="R12">
-        <v>28.331365128902</v>
+        <v>26.34551707657</v>
       </c>
       <c r="S12">
-        <v>0.0440260855508517</v>
+        <v>0.009862601168936365</v>
       </c>
       <c r="T12">
-        <v>0.0440260855508517</v>
+        <v>0.009862601168936364</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>52.65915966666667</v>
+        <v>48.96808833333333</v>
       </c>
       <c r="H13">
-        <v>157.977479</v>
+        <v>146.904265</v>
       </c>
       <c r="I13">
-        <v>0.2527853132096734</v>
+        <v>0.2281943410810271</v>
       </c>
       <c r="J13">
-        <v>0.2527853132096734</v>
+        <v>0.228194341081027</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1314136666666667</v>
+        <v>0.819893</v>
       </c>
       <c r="N13">
-        <v>0.3942410000000001</v>
+        <v>2.459679</v>
       </c>
       <c r="O13">
-        <v>0.3828667933045097</v>
+        <v>0.5927788665552932</v>
       </c>
       <c r="P13">
-        <v>0.3828667933045097</v>
+        <v>0.5927788665552931</v>
       </c>
       <c r="Q13">
-        <v>6.920133255382113</v>
+        <v>40.14859284788167</v>
       </c>
       <c r="R13">
-        <v>62.28119929843902</v>
+        <v>361.337335630935</v>
       </c>
       <c r="S13">
-        <v>0.09678310226306376</v>
+        <v>0.1352687828603432</v>
       </c>
       <c r="T13">
-        <v>0.09678310226306376</v>
+        <v>0.1352687828603432</v>
       </c>
     </row>
   </sheetData>
